--- a/Luban/Project/Datas/Tables.xlsx
+++ b/Luban/Project/Datas/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\GF_Survivor\Luban\Project\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F30269C-2682-4E48-A1B9-B18E2248CCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D43583-8DD1-4DBE-815C-A9D2337B644D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11810" yWindow="1220" windowWidth="11050" windowHeight="10470" tabRatio="827" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1410" yWindow="570" windowWidth="21260" windowHeight="14100" tabRatio="827" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Effect" sheetId="6" r:id="rId6"/>
     <sheet name="UIForm" sheetId="7" r:id="rId7"/>
     <sheet name="Scene" sheetId="8" r:id="rId8"/>
+    <sheet name="Equipment" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="201">
   <si>
     <t>##var</t>
   </si>
@@ -672,6 +673,86 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>EquipmentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifierType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glovers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glovers_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipPopupForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,ModifierData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Modifiers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -807,7 +888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
@@ -832,6 +913,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,6 +926,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1183,10 +1270,10 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="6"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -1287,10 +1374,10 @@
       <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="16"/>
       <c r="N3" s="6"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2811,13 +2898,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33679879-C208-4929-BF1E-38843164F149}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3013,6 +3108,40 @@
         <v>0</v>
       </c>
       <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3026,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9A08D4-157E-410B-AA06-C2BCB72868F3}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3109,4 +3238,194 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF7FADC-166E-421F-BB4F-45D254AA6ED7}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>10001</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>10002</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>